--- a/results/pvalue_SIDER_all_target_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_all_target_AUPRperdrug.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17.932</t>
+          <t>16.203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17.037</t>
+          <t>14.284</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.991</t>
+          <t>13.277</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11.977</t>
+          <t>10.111</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24.304</t>
+          <t>23.935</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24.777</t>
+          <t>24.824</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.305</t>
+          <t>25.261</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.344</t>
+          <t>18.004</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.023</t>
+          <t>8.584</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
